--- a/bank statement generator/bank_statements/statement_7.xlsx
+++ b/bank statement generator/bank_statements/statement_7.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 23.07.2024</t>
+          <t>KONTOSTAND AM 27.11.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,90 +759,74 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>25.07.</t>
+          <t>28.11.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>26.07.</t>
+          <t>29.11.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>BURGER KING Wernigerode</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>26,67-</t>
+          <t>22,39-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>29.07.</t>
+          <t>02.12.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>30.07.</t>
+          <t>03.12.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Sternberg</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 11911497</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>30,30-</t>
+          <t>85,63-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>01.08.</t>
+          <t>06.12.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>02.08.</t>
+          <t>07.12.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>BEITRAG Allianz SE K-99275379</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>66,72-</t>
+          <t>54,66-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>02.08.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>03.08.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZ./02.08 ALDI SUED RO</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>146,29-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="8" t="n"/>
@@ -861,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 07.08.2024</t>
+          <t>KONTOSTAND AM 09.12.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>269,98-</t>
+          <t>162,68-</t>
         </is>
       </c>
     </row>
@@ -874,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 15.08.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 14.12.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
